--- a/Code/Results/Cases/Case_1_127/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_127/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.001645685723247</v>
+        <v>1.165459706612893</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.4000354020837023</v>
+        <v>0.2488224328917426</v>
       </c>
       <c r="E2">
-        <v>0.1198694831250222</v>
+        <v>0.1483735075935364</v>
       </c>
       <c r="F2">
-        <v>6.705053705399337</v>
+        <v>4.071480314689751</v>
       </c>
       <c r="G2">
-        <v>0.0008234240393979951</v>
+        <v>0.002558162315808097</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.232378347065179</v>
+        <v>0.5197093639769435</v>
       </c>
       <c r="L2">
-        <v>0.2848132200577282</v>
+        <v>0.1934424834724666</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8960533621807087</v>
+        <v>1.147219516367358</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3628487419039885</v>
+        <v>0.2372677601341735</v>
       </c>
       <c r="E3">
-        <v>0.1137140213770156</v>
+        <v>0.1463204646685803</v>
       </c>
       <c r="F3">
-        <v>5.964900384387704</v>
+        <v>3.86001278759116</v>
       </c>
       <c r="G3">
-        <v>0.0008332001524169371</v>
+        <v>0.002563792790974841</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.049254344094919</v>
+        <v>0.4872460593818175</v>
       </c>
       <c r="L3">
-        <v>0.2468094916714421</v>
+        <v>0.1859794431274366</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8330102451473351</v>
+        <v>1.136760289262043</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.340374682224649</v>
+        <v>0.2301251174057057</v>
       </c>
       <c r="E4">
-        <v>0.1100039453304387</v>
+        <v>0.1450309399568699</v>
       </c>
       <c r="F4">
-        <v>5.518957174239404</v>
+        <v>3.730625981490846</v>
       </c>
       <c r="G4">
-        <v>0.0008393382280253991</v>
+        <v>0.002567426718146589</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9401274597702809</v>
+        <v>0.4680911022630028</v>
       </c>
       <c r="L4">
-        <v>0.2240967591894929</v>
+        <v>0.1815772066606058</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8077265018353046</v>
+        <v>1.13268411422689</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3312898653545346</v>
+        <v>0.227201921285868</v>
       </c>
       <c r="E5">
-        <v>0.108505312698723</v>
+        <v>0.144498054257685</v>
       </c>
       <c r="F5">
-        <v>5.33905892801107</v>
+        <v>3.678008715482292</v>
       </c>
       <c r="G5">
-        <v>0.0008418759943401681</v>
+        <v>0.002568952192630635</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8963741232827545</v>
+        <v>0.4604790159438892</v>
       </c>
       <c r="L5">
-        <v>0.2149785912058491</v>
+        <v>0.1798283263244826</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8035515277379943</v>
+        <v>1.132018502011761</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3297853220160363</v>
+        <v>0.2267157584925741</v>
       </c>
       <c r="E6">
-        <v>0.1082571521527527</v>
+        <v>0.1444091190791053</v>
       </c>
       <c r="F6">
-        <v>5.309288695522241</v>
+        <v>3.669278075808421</v>
       </c>
       <c r="G6">
-        <v>0.0008422996555281781</v>
+        <v>0.002569208196190179</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8891490298716178</v>
+        <v>0.4592266816913764</v>
       </c>
       <c r="L6">
-        <v>0.2134723095425386</v>
+        <v>0.1795406416311494</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8326676671985354</v>
+        <v>1.13670456340148</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3402518843409439</v>
+        <v>0.2300857453836755</v>
       </c>
       <c r="E7">
-        <v>0.1099836858046483</v>
+        <v>0.145023783358976</v>
       </c>
       <c r="F7">
-        <v>5.516523998832554</v>
+        <v>3.729915932972375</v>
       </c>
       <c r="G7">
-        <v>0.0008393723025938773</v>
+        <v>0.002567447110413068</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9395346298790059</v>
+        <v>0.4679876610717599</v>
       </c>
       <c r="L7">
-        <v>0.2239732555129734</v>
+        <v>0.181553438464249</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9648382606640098</v>
+        <v>1.159016752726956</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3871284696318327</v>
+        <v>0.2448480849354979</v>
       </c>
       <c r="E8">
-        <v>0.1177299987564222</v>
+        <v>0.1476715570132239</v>
       </c>
       <c r="F8">
-        <v>6.447883425976386</v>
+        <v>3.998468445410822</v>
       </c>
       <c r="G8">
-        <v>0.00082676822040711</v>
+        <v>0.002560067109340186</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.168476103485574</v>
+        <v>0.5083534948436181</v>
       </c>
       <c r="L8">
-        <v>0.2715685531778007</v>
+        <v>0.1908317100674566</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.240434846703181</v>
+        <v>1.208654879114249</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4827433500020533</v>
+        <v>0.2734366518957501</v>
       </c>
       <c r="E9">
-        <v>0.1336886248224154</v>
+        <v>0.1526394590308691</v>
       </c>
       <c r="F9">
-        <v>8.357754956737665</v>
+        <v>4.528986833796267</v>
       </c>
       <c r="G9">
-        <v>0.0008030066019434174</v>
+        <v>0.002546990218274116</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.649654808534194</v>
+        <v>0.5937698570460554</v>
       </c>
       <c r="L9">
-        <v>0.3707953384931955</v>
+        <v>0.210466821538418</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.456404306962185</v>
+        <v>1.248731436721243</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5565841595438599</v>
+        <v>0.2942513566266314</v>
       </c>
       <c r="E10">
-        <v>0.1462373352011852</v>
+        <v>0.1561601591558368</v>
       </c>
       <c r="F10">
-        <v>9.837207944607087</v>
+        <v>4.921550845522148</v>
       </c>
       <c r="G10">
-        <v>0.0007859402072601271</v>
+        <v>0.002538222680354186</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.032408624021713</v>
+        <v>0.6604730719909355</v>
       </c>
       <c r="L10">
-        <v>0.4488210166246915</v>
+        <v>0.2257888276431714</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.558498151102214</v>
+        <v>1.267751642990021</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5913120933493303</v>
+        <v>0.3036860719655294</v>
       </c>
       <c r="E11">
-        <v>0.1522229452761579</v>
+        <v>0.1577354135922242</v>
       </c>
       <c r="F11">
-        <v>10.53353937144806</v>
+        <v>5.100839045334055</v>
       </c>
       <c r="G11">
-        <v>0.0007782107968524129</v>
+        <v>0.002534414252921629</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.215467572524489</v>
+        <v>0.6917048955695293</v>
       </c>
       <c r="L11">
-        <v>0.4858365122058359</v>
+        <v>0.232957864339113</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.597801364802308</v>
+        <v>1.275067888370529</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6046613796642646</v>
+        <v>0.3072543738399816</v>
       </c>
       <c r="E12">
-        <v>0.1545394285036323</v>
+        <v>0.1583282665980672</v>
       </c>
       <c r="F12">
-        <v>10.80124053845287</v>
+        <v>5.168839722629286</v>
       </c>
       <c r="G12">
-        <v>0.0007752838136196517</v>
+        <v>0.002532997806669693</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.286333190118967</v>
+        <v>0.7036615987030359</v>
       </c>
       <c r="L12">
-        <v>0.5001123994122167</v>
+        <v>0.235701505637337</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.589306576020817</v>
+        <v>1.273487143211838</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6017769232165335</v>
+        <v>0.306486065260458</v>
       </c>
       <c r="E13">
-        <v>0.1540381351557016</v>
+        <v>0.1582007459529304</v>
       </c>
       <c r="F13">
-        <v>10.74339603724979</v>
+        <v>5.154189651459546</v>
       </c>
       <c r="G13">
-        <v>0.0007759142798458087</v>
+        <v>0.002533301722126445</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.270997683287931</v>
+        <v>0.7010806969109638</v>
       </c>
       <c r="L13">
-        <v>0.4970256072093804</v>
+        <v>0.2351093244668192</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.561718215410536</v>
+        <v>1.268351274733988</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5924061471856703</v>
+        <v>0.303979724191521</v>
       </c>
       <c r="E14">
-        <v>0.1524124604162225</v>
+        <v>0.1577842606325621</v>
       </c>
       <c r="F14">
-        <v>10.55547866380317</v>
+        <v>5.106431299137057</v>
       </c>
       <c r="G14">
-        <v>0.000777970023935959</v>
+        <v>0.002534297206332606</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.221265118977158</v>
+        <v>0.6926859649873336</v>
       </c>
       <c r="L14">
-        <v>0.4870055558737789</v>
+        <v>0.2331830049408836</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.544906091356808</v>
+        <v>1.265220221742283</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5866932692233036</v>
+        <v>0.3024439562859698</v>
       </c>
       <c r="E15">
-        <v>0.1514235100367234</v>
+        <v>0.1575286782110688</v>
       </c>
       <c r="F15">
-        <v>10.44091821647027</v>
+        <v>5.077192196127328</v>
       </c>
       <c r="G15">
-        <v>0.0007792290633876342</v>
+        <v>0.002534910314482676</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.191012159157054</v>
+        <v>0.6875609297855476</v>
       </c>
       <c r="L15">
-        <v>0.4809030053893224</v>
+        <v>0.2320068480998998</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.449816993653457</v>
+        <v>1.247504320559159</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5543403661607442</v>
+        <v>0.2936341316395215</v>
       </c>
       <c r="E16">
-        <v>0.1458525530256889</v>
+        <v>0.1560566933664909</v>
       </c>
       <c r="F16">
-        <v>9.792224615214735</v>
+        <v>4.909848731424631</v>
       </c>
       <c r="G16">
-        <v>0.0007864456251174051</v>
+        <v>0.002538475178075031</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.020646424506339</v>
+        <v>0.6584500559962123</v>
       </c>
       <c r="L16">
-        <v>0.4464358709228833</v>
+        <v>0.2253243411209809</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.392527949043796</v>
+        <v>1.236838470976096</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5348074863645138</v>
+        <v>0.2882212140417835</v>
       </c>
       <c r="E17">
-        <v>0.1425125027122451</v>
+        <v>0.1551470228497092</v>
       </c>
       <c r="F17">
-        <v>9.400685003353317</v>
+        <v>4.807374869751044</v>
       </c>
       <c r="G17">
-        <v>0.0007908782246559319</v>
+        <v>0.002540708089321997</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.918594226203794</v>
+        <v>0.6408204953176835</v>
       </c>
       <c r="L17">
-        <v>0.4257076960502673</v>
+        <v>0.2212759928480637</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.359932979719417</v>
+        <v>1.230778023491354</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5236773597415834</v>
+        <v>0.2851046186359412</v>
       </c>
       <c r="E18">
-        <v>0.1406167841759629</v>
+        <v>0.1546213186240202</v>
       </c>
       <c r="F18">
-        <v>9.177631716131742</v>
+        <v>4.748500960216376</v>
       </c>
       <c r="G18">
-        <v>0.0007934312921345256</v>
+        <v>0.00254200934978983</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.860720366845896</v>
+        <v>0.6307639073792188</v>
       </c>
       <c r="L18">
-        <v>0.4139258417937128</v>
+        <v>0.2189662023644701</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.34895554909113</v>
+        <v>1.2287388089768</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5199258858532687</v>
+        <v>0.284048824295013</v>
       </c>
       <c r="E19">
-        <v>0.1399790109910111</v>
+        <v>0.1544428934963964</v>
       </c>
       <c r="F19">
-        <v>9.102460409972451</v>
+        <v>4.728578473745245</v>
       </c>
       <c r="G19">
-        <v>0.0007942964655763554</v>
+        <v>0.002542452849894657</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.841259556859399</v>
+        <v>0.6273731900260202</v>
       </c>
       <c r="L19">
-        <v>0.4099597049964387</v>
+        <v>0.2181873527441667</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.39858899877575</v>
+        <v>1.237966180940788</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5368757252677767</v>
+        <v>0.288797759102323</v>
       </c>
       <c r="E20">
-        <v>0.1428653622150478</v>
+        <v>0.1552441152025388</v>
       </c>
       <c r="F20">
-        <v>9.442138079243392</v>
+        <v>4.818276476203664</v>
       </c>
       <c r="G20">
-        <v>0.000790406032480296</v>
+        <v>0.002540468639144061</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.92937084797947</v>
+        <v>0.6426885378489828</v>
       </c>
       <c r="L20">
-        <v>0.4278994389994324</v>
+        <v>0.2217050078402281</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.569803371764465</v>
+        <v>1.269856716003716</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5951528754876847</v>
+        <v>0.3047160135199363</v>
       </c>
       <c r="E21">
-        <v>0.152888518158619</v>
+        <v>0.1579066908444595</v>
       </c>
       <c r="F21">
-        <v>10.61055977292597</v>
+        <v>5.120456100521949</v>
       </c>
       <c r="G21">
-        <v>0.0007773662459203054</v>
+        <v>0.002534004111781225</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.235828556621556</v>
+        <v>0.6951481585963109</v>
       </c>
       <c r="L21">
-        <v>0.4899413087139948</v>
+        <v>0.2337480256321811</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.685498328687288</v>
+        <v>1.291361903763772</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6344182530306455</v>
+        <v>0.3150939702103983</v>
       </c>
       <c r="E22">
-        <v>0.1597359473156637</v>
+        <v>0.1596255537494198</v>
       </c>
       <c r="F22">
-        <v>11.39798368763599</v>
+        <v>5.318581143530139</v>
       </c>
       <c r="G22">
-        <v>0.0007688409684477973</v>
+        <v>0.002529929027769469</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.445276956001408</v>
+        <v>0.730191684584355</v>
       </c>
       <c r="L22">
-        <v>0.5320219803781754</v>
+        <v>0.2417873140049807</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.623369297703618</v>
+        <v>1.279823449404148</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.613340732665165</v>
+        <v>0.309557240525038</v>
       </c>
       <c r="E23">
-        <v>0.1560503782348182</v>
+        <v>0.1587100702767739</v>
       </c>
       <c r="F23">
-        <v>10.97529650180417</v>
+        <v>5.212778071119772</v>
       </c>
       <c r="G23">
-        <v>0.000773393189730097</v>
+        <v>0.002532090316399615</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.332554494312063</v>
+        <v>0.7114181987720656</v>
       </c>
       <c r="L23">
-        <v>0.5094074757174951</v>
+        <v>0.2374810878159934</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.395847741781722</v>
+        <v>1.237456120601991</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5359403668390428</v>
+        <v>0.2885371175588034</v>
       </c>
       <c r="E24">
-        <v>0.142705758785679</v>
+        <v>0.1552002282392664</v>
       </c>
       <c r="F24">
-        <v>9.423390813037997</v>
+        <v>4.813347736803223</v>
       </c>
       <c r="G24">
-        <v>0.0007906194956744828</v>
+        <v>0.002540576839807093</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.924496272823063</v>
+        <v>0.6418437502862275</v>
       </c>
       <c r="L24">
-        <v>0.4269081343113896</v>
+        <v>0.2215109951790737</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.16378817955686</v>
+        <v>1.194594470527647</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4563537990834448</v>
+        <v>0.2657381395037248</v>
       </c>
       <c r="E25">
-        <v>0.1292557646510328</v>
+        <v>0.1513187527551061</v>
       </c>
       <c r="F25">
-        <v>7.829726390571125</v>
+        <v>4.385008030330795</v>
       </c>
       <c r="G25">
-        <v>0.0008093507557662249</v>
+        <v>0.00255037958153998</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.515125553990799</v>
+        <v>0.5699788762338756</v>
       </c>
       <c r="L25">
-        <v>0.3431751041170088</v>
+        <v>0.2049989589209389</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_127/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_127/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.165459706612893</v>
+        <v>1.00164568572319</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2488224328917426</v>
+        <v>0.400035402083887</v>
       </c>
       <c r="E2">
-        <v>0.1483735075935364</v>
+        <v>0.1198694831250986</v>
       </c>
       <c r="F2">
-        <v>4.071480314689751</v>
+        <v>6.705053705399308</v>
       </c>
       <c r="G2">
-        <v>0.002558162315808097</v>
+        <v>0.0008234240395131936</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5197093639769435</v>
+        <v>1.232378347065293</v>
       </c>
       <c r="L2">
-        <v>0.1934424834724666</v>
+        <v>0.2848132200575719</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.147219516367358</v>
+        <v>0.8960533621807087</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2372677601341735</v>
+        <v>0.3628487419040027</v>
       </c>
       <c r="E3">
-        <v>0.1463204646685803</v>
+        <v>0.1137140213770209</v>
       </c>
       <c r="F3">
-        <v>3.86001278759116</v>
+        <v>5.964900384387676</v>
       </c>
       <c r="G3">
-        <v>0.002563792790974841</v>
+        <v>0.0008332001524755152</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4872460593818175</v>
+        <v>1.049254344094919</v>
       </c>
       <c r="L3">
-        <v>0.1859794431274366</v>
+        <v>0.2468094916713284</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.136760289262043</v>
+        <v>0.833010245147392</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2301251174057057</v>
+        <v>0.3403746822244784</v>
       </c>
       <c r="E4">
-        <v>0.1450309399568699</v>
+        <v>0.1100039453304298</v>
       </c>
       <c r="F4">
-        <v>3.730625981490846</v>
+        <v>5.518957174239347</v>
       </c>
       <c r="G4">
-        <v>0.002567426718146589</v>
+        <v>0.0008393382280280562</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4680911022630028</v>
+        <v>0.9401274597700819</v>
       </c>
       <c r="L4">
-        <v>0.1815772066606058</v>
+        <v>0.2240967591895213</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.13268411422689</v>
+        <v>0.8077265018351341</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.227201921285868</v>
+        <v>0.3312898653543073</v>
       </c>
       <c r="E5">
-        <v>0.144498054257685</v>
+        <v>0.1085053126987585</v>
       </c>
       <c r="F5">
-        <v>3.678008715482292</v>
+        <v>5.339058928011042</v>
       </c>
       <c r="G5">
-        <v>0.002568952192630635</v>
+        <v>0.0008418759941889309</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4604790159438892</v>
+        <v>0.8963741232829534</v>
       </c>
       <c r="L5">
-        <v>0.1798283263244826</v>
+        <v>0.2149785912058775</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.132018502011761</v>
+        <v>0.8035515277380227</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2267157584925741</v>
+        <v>0.3297853220158231</v>
       </c>
       <c r="E6">
-        <v>0.1444091190791053</v>
+        <v>0.1082571521527864</v>
       </c>
       <c r="F6">
-        <v>3.669278075808421</v>
+        <v>5.309288695522213</v>
       </c>
       <c r="G6">
-        <v>0.002569208196190179</v>
+        <v>0.0008422996555294719</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4592266816913764</v>
+        <v>0.8891490298714189</v>
       </c>
       <c r="L6">
-        <v>0.1795406416311494</v>
+        <v>0.213472309542567</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.13670456340148</v>
+        <v>0.8326676671988196</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2300857453836755</v>
+        <v>0.3402518843411713</v>
       </c>
       <c r="E7">
-        <v>0.145023783358976</v>
+        <v>0.1099836858046181</v>
       </c>
       <c r="F7">
-        <v>3.729915932972375</v>
+        <v>5.516523998832582</v>
       </c>
       <c r="G7">
-        <v>0.002567447110413068</v>
+        <v>0.0008393723025000353</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4679876610717599</v>
+        <v>0.9395346298789491</v>
       </c>
       <c r="L7">
-        <v>0.181553438464249</v>
+        <v>0.2239732555126892</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.159016752726956</v>
+        <v>0.9648382606639814</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2448480849354979</v>
+        <v>0.3871284696318327</v>
       </c>
       <c r="E8">
-        <v>0.1476715570132239</v>
+        <v>0.1177299987564542</v>
       </c>
       <c r="F8">
-        <v>3.998468445410822</v>
+        <v>6.447883425976443</v>
       </c>
       <c r="G8">
-        <v>0.002560067109340186</v>
+        <v>0.0008267682204065191</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5083534948436181</v>
+        <v>1.168476103485546</v>
       </c>
       <c r="L8">
-        <v>0.1908317100674566</v>
+        <v>0.2715685531780991</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.208654879114249</v>
+        <v>1.240434846703465</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2734366518957501</v>
+        <v>0.4827433500018969</v>
       </c>
       <c r="E9">
-        <v>0.1526394590308691</v>
+        <v>0.1336886248223799</v>
       </c>
       <c r="F9">
-        <v>4.528986833796267</v>
+        <v>8.357754956737665</v>
       </c>
       <c r="G9">
-        <v>0.002546990218274116</v>
+        <v>0.000803006601730468</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5937698570460554</v>
+        <v>1.649654808534308</v>
       </c>
       <c r="L9">
-        <v>0.210466821538418</v>
+        <v>0.3707953384931102</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.248731436721243</v>
+        <v>1.456404306962412</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2942513566266314</v>
+        <v>0.5565841595441157</v>
       </c>
       <c r="E10">
-        <v>0.1561601591558368</v>
+        <v>0.1462373352011888</v>
       </c>
       <c r="F10">
-        <v>4.921550845522148</v>
+        <v>9.83720794460703</v>
       </c>
       <c r="G10">
-        <v>0.002538222680354186</v>
+        <v>0.0007859402074935887</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6604730719909355</v>
+        <v>2.032408624021741</v>
       </c>
       <c r="L10">
-        <v>0.2257888276431714</v>
+        <v>0.4488210166246773</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.267751642990021</v>
+        <v>1.558498151102441</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3036860719655294</v>
+        <v>0.5913120933493872</v>
       </c>
       <c r="E11">
-        <v>0.1577354135922242</v>
+        <v>0.15222294527622</v>
       </c>
       <c r="F11">
-        <v>5.100839045334055</v>
+        <v>10.53353937144806</v>
       </c>
       <c r="G11">
-        <v>0.002534414252921629</v>
+        <v>0.000778210796947175</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6917048955695293</v>
+        <v>2.21546757252446</v>
       </c>
       <c r="L11">
-        <v>0.232957864339113</v>
+        <v>0.4858365122058217</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.275067888370529</v>
+        <v>1.597801364802024</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3072543738399816</v>
+        <v>0.6046613796640656</v>
       </c>
       <c r="E12">
-        <v>0.1583282665980672</v>
+        <v>0.1545394285036412</v>
       </c>
       <c r="F12">
-        <v>5.168839722629286</v>
+        <v>10.80124053845287</v>
       </c>
       <c r="G12">
-        <v>0.002532997806669693</v>
+        <v>0.0007752838136206038</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7036615987030359</v>
+        <v>2.286333190119137</v>
       </c>
       <c r="L12">
-        <v>0.235701505637337</v>
+        <v>0.5001123994122167</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.273487143211838</v>
+        <v>1.589306576020533</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.306486065260458</v>
+        <v>0.601776923215823</v>
       </c>
       <c r="E13">
-        <v>0.1582007459529304</v>
+        <v>0.1540381351557105</v>
       </c>
       <c r="F13">
-        <v>5.154189651459546</v>
+        <v>10.74339603724974</v>
       </c>
       <c r="G13">
-        <v>0.002533301722126445</v>
+        <v>0.0007759142800824454</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7010806969109638</v>
+        <v>2.270997683287845</v>
       </c>
       <c r="L13">
-        <v>0.2351093244668192</v>
+        <v>0.4970256072091672</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.268351274733988</v>
+        <v>1.56171821541065</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.303979724191521</v>
+        <v>0.5924061471859545</v>
       </c>
       <c r="E14">
-        <v>0.1577842606325621</v>
+        <v>0.1524124604161905</v>
       </c>
       <c r="F14">
-        <v>5.106431299137057</v>
+        <v>10.55547866380306</v>
       </c>
       <c r="G14">
-        <v>0.002534297206332606</v>
+        <v>0.0007779700238382492</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6926859649873336</v>
+        <v>2.221265118977442</v>
       </c>
       <c r="L14">
-        <v>0.2331830049408836</v>
+        <v>0.4870055558737505</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.265220221742283</v>
+        <v>1.544906091356495</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3024439562859698</v>
+        <v>0.5866932692237299</v>
       </c>
       <c r="E15">
-        <v>0.1575286782110688</v>
+        <v>0.1514235100368282</v>
       </c>
       <c r="F15">
-        <v>5.077192196127328</v>
+        <v>10.44091821647038</v>
       </c>
       <c r="G15">
-        <v>0.002534910314482676</v>
+        <v>0.0007792290633840363</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6875609297855476</v>
+        <v>2.191012159156827</v>
       </c>
       <c r="L15">
-        <v>0.2320068480998998</v>
+        <v>0.4809030053891377</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.247504320559159</v>
+        <v>1.4498169936534</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2936341316395215</v>
+        <v>0.5543403661606874</v>
       </c>
       <c r="E16">
-        <v>0.1560566933664909</v>
+        <v>0.1458525530257919</v>
       </c>
       <c r="F16">
-        <v>4.909848731424631</v>
+        <v>9.792224615214792</v>
       </c>
       <c r="G16">
-        <v>0.002538475178075031</v>
+        <v>0.0007864456252322749</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6584500559962123</v>
+        <v>2.020646424506481</v>
       </c>
       <c r="L16">
-        <v>0.2253243411209809</v>
+        <v>0.446435870922798</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.236838470976096</v>
+        <v>1.392527949044052</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2882212140417835</v>
+        <v>0.5348074863645422</v>
       </c>
       <c r="E17">
-        <v>0.1551470228497092</v>
+        <v>0.1425125027123624</v>
       </c>
       <c r="F17">
-        <v>4.807374869751044</v>
+        <v>9.400685003353288</v>
       </c>
       <c r="G17">
-        <v>0.002540708089321997</v>
+        <v>0.000790878224661112</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6408204953176835</v>
+        <v>1.918594226203766</v>
       </c>
       <c r="L17">
-        <v>0.2212759928480637</v>
+        <v>0.4257076960500967</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.230778023491354</v>
+        <v>1.35993297971936</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2851046186359412</v>
+        <v>0.5236773597419528</v>
       </c>
       <c r="E18">
-        <v>0.1546213186240202</v>
+        <v>0.1406167841759505</v>
       </c>
       <c r="F18">
-        <v>4.748500960216376</v>
+        <v>9.177631716131913</v>
       </c>
       <c r="G18">
-        <v>0.00254200934978983</v>
+        <v>0.0007934312921186184</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6307639073792188</v>
+        <v>1.860720366845726</v>
       </c>
       <c r="L18">
-        <v>0.2189662023644701</v>
+        <v>0.4139258417936702</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.2287388089768</v>
+        <v>1.348955549091386</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.284048824295013</v>
+        <v>0.5199258858528708</v>
       </c>
       <c r="E19">
-        <v>0.1544428934963964</v>
+        <v>0.1399790109910928</v>
       </c>
       <c r="F19">
-        <v>4.728578473745245</v>
+        <v>9.102460409972423</v>
       </c>
       <c r="G19">
-        <v>0.002542452849894657</v>
+        <v>0.0007942964654680245</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6273731900260202</v>
+        <v>1.841259556859541</v>
       </c>
       <c r="L19">
-        <v>0.2181873527441667</v>
+        <v>0.4099597049967798</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.237966180940788</v>
+        <v>1.39858899877558</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.288797759102323</v>
+        <v>0.5368757252678336</v>
       </c>
       <c r="E20">
-        <v>0.1552441152025388</v>
+        <v>0.142865362215014</v>
       </c>
       <c r="F20">
-        <v>4.818276476203664</v>
+        <v>9.442138079243307</v>
       </c>
       <c r="G20">
-        <v>0.002540468639144061</v>
+        <v>0.0007904060324895564</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6426885378489828</v>
+        <v>1.929370847979357</v>
       </c>
       <c r="L20">
-        <v>0.2217050078402281</v>
+        <v>0.4278994389994324</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.269856716003716</v>
+        <v>1.569803371764664</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3047160135199363</v>
+        <v>0.5951528754879405</v>
       </c>
       <c r="E21">
-        <v>0.1579066908444595</v>
+        <v>0.1528885181585746</v>
       </c>
       <c r="F21">
-        <v>5.120456100521949</v>
+        <v>10.61055977292591</v>
       </c>
       <c r="G21">
-        <v>0.002534004111781225</v>
+        <v>0.0007773662459293015</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6951481585963109</v>
+        <v>2.235828556621669</v>
       </c>
       <c r="L21">
-        <v>0.2337480256321811</v>
+        <v>0.4899413087137816</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.291361903763772</v>
+        <v>1.685498328687487</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3150939702103983</v>
+        <v>0.634418253031015</v>
       </c>
       <c r="E22">
-        <v>0.1596255537494198</v>
+        <v>0.1597359473156654</v>
       </c>
       <c r="F22">
-        <v>5.318581143530139</v>
+        <v>11.39798368763604</v>
       </c>
       <c r="G22">
-        <v>0.002529929027769469</v>
+        <v>0.0007688409685531995</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.730191684584355</v>
+        <v>2.445276956001408</v>
       </c>
       <c r="L22">
-        <v>0.2417873140049807</v>
+        <v>0.5320219803779906</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.279823449404148</v>
+        <v>1.62336929770342</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.309557240525038</v>
+        <v>0.6133407326654776</v>
       </c>
       <c r="E23">
-        <v>0.1587100702767739</v>
+        <v>0.156050378234891</v>
       </c>
       <c r="F23">
-        <v>5.212778071119772</v>
+        <v>10.97529650180422</v>
       </c>
       <c r="G23">
-        <v>0.002532090316399615</v>
+        <v>0.0007733931898454369</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7114181987720656</v>
+        <v>2.33255449431212</v>
       </c>
       <c r="L23">
-        <v>0.2374810878159934</v>
+        <v>0.5094074757173246</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.237456120601991</v>
+        <v>1.395847741781836</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2885371175588034</v>
+        <v>0.5359403668392417</v>
       </c>
       <c r="E24">
-        <v>0.1552002282392664</v>
+        <v>0.1427057587857057</v>
       </c>
       <c r="F24">
-        <v>4.813347736803223</v>
+        <v>9.423390813037912</v>
       </c>
       <c r="G24">
-        <v>0.002540576839807093</v>
+        <v>0.0007906194955638383</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6418437502862275</v>
+        <v>1.92449627282295</v>
       </c>
       <c r="L24">
-        <v>0.2215109951790737</v>
+        <v>0.4269081343115033</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.194594470527647</v>
+        <v>1.16378817955686</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2657381395037248</v>
+        <v>0.4563537990830184</v>
       </c>
       <c r="E25">
-        <v>0.1513187527551061</v>
+        <v>0.1292557646510524</v>
       </c>
       <c r="F25">
-        <v>4.385008030330795</v>
+        <v>7.829726390571153</v>
       </c>
       <c r="G25">
-        <v>0.00255037958153998</v>
+        <v>0.0008093507557629465</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5699788762338756</v>
+        <v>1.515125553990742</v>
       </c>
       <c r="L25">
-        <v>0.2049989589209389</v>
+        <v>0.343175104116952</v>
       </c>
       <c r="M25">
         <v>0</v>
